--- a/biology/Botanique/Hirtella/Hirtella.xlsx
+++ b/biology/Botanique/Hirtella/Hirtella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirtella est un genre de plantes à fleurs de la famille des Chrysobalanaceae (anciennement des Rosaceae), dont l'espèce type est Hirtella americana L.. Ce sont des arbres et des arbustes.
-Le genre Hirtella compte 108 (à 128 + 14 taxons infraspécifiques) espèces dont la plupart sont originaires d'Amérique tropicale et subtropicale, exceptés Hirtella zanzibarica originaire de Zanzibar et Hirtella thouarsiana originaire de Madagascar[2]. 
+Le genre Hirtella compte 108 (à 128 + 14 taxons infraspécifiques) espèces dont la plupart sont originaires d'Amérique tropicale et subtropicale, exceptés Hirtella zanzibarica originaire de Zanzibar et Hirtella thouarsiana originaire de Madagascar. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 mai 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 mai 2022) :
 Hirtella adderleyi Prance
 Hirtella adenophora Cuatrec.
 Hirtella aequatoriensis Prance
@@ -657,7 +671,7 @@
 Hirtella zanzibarica Oliv.
 H. zanzibarica subsp. megacarpa (R.A.Graham) Prance
 H. zanzibarica subsp. zanzibarica
-Selon World Checklist of Selected Plant Families (WCSP)  (14 juin 2012)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 juin 2012) :
 Hirtella adderleyi Prance (1972)
 Hirtella adenophora Cuatrec. (1956)
 Hirtella aequatoriensis Prance (1999 publ. 2000)
